--- a/JCodes.Framework.WinFormUI/Template/网下利率询价及申购申请表汇总表.xlsx
+++ b/JCodes.Framework.WinFormUI/Template/网下利率询价及申购申请表汇总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8930"/>
+    <workbookView windowWidth="19100" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>机构名或姓名</t>
   </si>
@@ -33,7 +33,7 @@
     <t>身份证明号码（如营业执照注册号等）</t>
   </si>
   <si>
-    <t>票面利率</t>
+    <t>到期赎回价格</t>
   </si>
   <si>
     <t>申购金额</t>
@@ -51,10 +51,7 @@
     <t>大额支付系统号</t>
   </si>
   <si>
-    <t>退款汇入行省份</t>
-  </si>
-  <si>
-    <t>退款汇入行地市</t>
+    <t>退款汇入行省份地市</t>
   </si>
 </sst>
 </file>
@@ -63,34 +60,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +87,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,17 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +171,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,23 +194,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,35 +219,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,37 +238,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,7 +280,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,109 +298,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,13 +316,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,17 +447,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +463,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,37 +500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,11 +530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,148 +549,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -764,7 +761,12 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1047,29 +1049,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1993"/>
+  <dimension ref="A1:M1992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="2" width="16.6272727272727" customWidth="1"/>
-    <col min="3" max="3" width="10.7545454545455" customWidth="1"/>
-    <col min="9" max="9" width="16.6272727272727" customWidth="1"/>
-    <col min="10" max="10" width="16.1272727272727" customWidth="1"/>
-    <col min="11" max="11" width="14.3727272727273" customWidth="1"/>
+    <col min="1" max="2" width="16.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="10.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="16.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="16.0909090909091" customWidth="1"/>
+    <col min="11" max="11" width="14.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="70" spans="1:14">
+    <row r="1" ht="70" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1106,10 +1107,7 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
     <row r="2" spans="4:11">
       <c r="D2" s="2"/>
@@ -13056,12 +13054,6 @@
       <c r="E1992" s="2"/>
       <c r="J1992" s="2"/>
       <c r="K1992" s="2"/>
-    </row>
-    <row r="1993" spans="4:11">
-      <c r="D1993" s="2"/>
-      <c r="E1993" s="2"/>
-      <c r="J1993" s="2"/>
-      <c r="K1993" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13071,7 +13063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -13087,7 +13079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/JCodes.Framework.WinFormUI/Template/网下利率询价及申购申请表汇总表.xlsx
+++ b/JCodes.Framework.WinFormUI/Template/网下利率询价及申购申请表汇总表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19100" windowHeight="8690"/>
+    <workbookView windowWidth="19100" windowHeight="9890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
   <si>
     <t>机构名或姓名</t>
   </si>
@@ -33,7 +33,7 @@
     <t>身份证明号码（如营业执照注册号等）</t>
   </si>
   <si>
-    <t>到期赎回价格</t>
+    <t>票面利率</t>
   </si>
   <si>
     <t>申购金额</t>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>退款汇入行省份地市</t>
+  </si>
+  <si>
+    <t>标识</t>
   </si>
 </sst>
 </file>
@@ -74,14 +77,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,6 +110,21 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,15 +139,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,37 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,16 +164,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,16 +197,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,7 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,175 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +450,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -461,8 +479,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,23 +497,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,148 +552,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
@@ -705,7 +708,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1058,7 +1061,7 @@
   <dimension ref="A1:M1992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1107,7 +1110,9 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="4:11">
       <c r="D2" s="2"/>
